--- a/notebooks/output/deduped_contacts.xlsx
+++ b/notebooks/output/deduped_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd893d932ac0802d/Projects/data-dedup-pilot/notebooks/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_4A482F572B77854633A6F7A6AB5484D3D212F28D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D5BF468-0898-4387-9ED2-75C713556FA2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4A482F572B570E1ADB87E1A6AB5484D3D212F28D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD6FFF27-1B9E-4850-AD21-D310406531CC}"/>
   <bookViews>
     <workbookView xWindow="2850" yWindow="870" windowWidth="23805" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1230,14 +1230,12 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/notebooks/output/deduped_contacts.xlsx
+++ b/notebooks/output/deduped_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd893d932ac0802d/Projects/data-dedup-pilot/notebooks/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4A482F572B570E1ADB87E1A6AB5484D3D212F28D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD6FFF27-1B9E-4850-AD21-D310406531CC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4A482F572B57862FFF47ECA6AB5484D3D212F28D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A84D15-346D-49F4-977D-F2DB8E28E929}"/>
   <bookViews>
     <workbookView xWindow="2850" yWindow="870" windowWidth="23805" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1229,13 +1229,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
